--- a/medicine/Œil et vue/Illusion_de_Jastrow/Illusion_de_Jastrow.xlsx
+++ b/medicine/Œil et vue/Illusion_de_Jastrow/Illusion_de_Jastrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’illusion de Jastrow est une illusion visuelle découverte par le psychologue américain Joseph Jastrow. Cette illusion, où deux figures identiques paraissent de taille différente, est due au fait que l'œil s'attarde plutôt à comparer le bord inférieur de la figure du haut au bord supérieur de la figure du bas pour conclure à une différence de taille[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’illusion de Jastrow est une illusion visuelle découverte par le psychologue américain Joseph Jastrow. Cette illusion, où deux figures identiques paraissent de taille différente, est due au fait que l'œil s'attarde plutôt à comparer le bord inférieur de la figure du haut au bord supérieur de la figure du bas pour conclure à une différence de taille,.
 La nouvelle disposition des mêmes figures sur l'illustration ci-contre aide à faire disparaître l'illusion.
 </t>
         </is>
